--- a/data/pca/factorExposure/factorExposure_2019-05-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1278887292789247</v>
+        <v>0.07932716816617606</v>
       </c>
       <c r="C2">
-        <v>-0.01658655028829847</v>
+        <v>-0.01617864554645914</v>
       </c>
       <c r="D2">
-        <v>-0.02725797394326012</v>
+        <v>0.04159138895178751</v>
       </c>
       <c r="E2">
-        <v>0.0913982853126287</v>
+        <v>0.1093914082586351</v>
       </c>
       <c r="F2">
-        <v>-0.09355403604707049</v>
+        <v>-0.08478775165025076</v>
       </c>
       <c r="G2">
-        <v>0.1172609193815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.09360319330206888</v>
+      </c>
+      <c r="H2">
+        <v>-0.08136959390573796</v>
+      </c>
+      <c r="I2">
+        <v>-0.02339466512491191</v>
+      </c>
+      <c r="J2">
+        <v>0.03288587319851047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2175222711808645</v>
+        <v>0.1636037036915906</v>
       </c>
       <c r="C3">
-        <v>0.08786863311696529</v>
+        <v>-0.08285226571160977</v>
       </c>
       <c r="D3">
-        <v>0.06358046241311351</v>
+        <v>-0.02913243534548747</v>
       </c>
       <c r="E3">
-        <v>0.3098331598591526</v>
+        <v>0.247104226223596</v>
       </c>
       <c r="F3">
-        <v>-0.02464880115566668</v>
+        <v>-0.2985698719159409</v>
       </c>
       <c r="G3">
-        <v>0.3613632550720356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.03487753640930203</v>
+      </c>
+      <c r="H3">
+        <v>-0.2820681749126438</v>
+      </c>
+      <c r="I3">
+        <v>-0.1420839443085971</v>
+      </c>
+      <c r="J3">
+        <v>0.3585397304922543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1000750930061763</v>
+        <v>0.0735994095249959</v>
       </c>
       <c r="C4">
-        <v>0.02506164208898337</v>
+        <v>-0.03436991319896365</v>
       </c>
       <c r="D4">
-        <v>-0.009323305552206007</v>
+        <v>0.02583272221962093</v>
       </c>
       <c r="E4">
-        <v>0.07281109837731792</v>
+        <v>0.03590736356120297</v>
       </c>
       <c r="F4">
-        <v>-0.05301240602443291</v>
+        <v>-0.08876551033675203</v>
       </c>
       <c r="G4">
-        <v>0.03574399392822027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03739856352552706</v>
+      </c>
+      <c r="H4">
+        <v>-0.03101217963201262</v>
+      </c>
+      <c r="I4">
+        <v>-0.02723924766694935</v>
+      </c>
+      <c r="J4">
+        <v>0.04344645354977856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01381012808944618</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.003030714662499443</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0002347155129897495</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.003376661718691339</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.003441942540695184</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01927074036423334</v>
+      </c>
+      <c r="H6">
+        <v>-0.003098214162399431</v>
+      </c>
+      <c r="I6">
+        <v>0.002308295927281187</v>
+      </c>
+      <c r="J6">
+        <v>-0.0009717476059294704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04347101155266546</v>
+        <v>0.03383933240485059</v>
       </c>
       <c r="C7">
-        <v>0.006001934215701724</v>
+        <v>-0.018110574391052</v>
       </c>
       <c r="D7">
-        <v>-0.02652607475426305</v>
+        <v>0.01965541659943866</v>
       </c>
       <c r="E7">
-        <v>0.0846588081267034</v>
+        <v>0.03437574375639459</v>
       </c>
       <c r="F7">
-        <v>0.03172101503505626</v>
+        <v>-0.05061355562036104</v>
       </c>
       <c r="G7">
-        <v>0.01185039157908598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01195305813846213</v>
+      </c>
+      <c r="H7">
+        <v>-0.04778324363462812</v>
+      </c>
+      <c r="I7">
+        <v>-0.001828317605497932</v>
+      </c>
+      <c r="J7">
+        <v>0.01026996066564163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04429067030907123</v>
+        <v>0.03312458833441809</v>
       </c>
       <c r="C8">
-        <v>0.03805373051800067</v>
+        <v>-0.03809602861067582</v>
       </c>
       <c r="D8">
-        <v>0.004538453121593034</v>
+        <v>0.008810630756724343</v>
       </c>
       <c r="E8">
-        <v>0.06880517785128791</v>
+        <v>0.0364219332777211</v>
       </c>
       <c r="F8">
-        <v>-0.001450350825862266</v>
+        <v>-0.07732771700592875</v>
       </c>
       <c r="G8">
-        <v>0.05367099726814158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0006112581545702638</v>
+      </c>
+      <c r="H8">
+        <v>-0.05663022342250284</v>
+      </c>
+      <c r="I8">
+        <v>-0.02865964194459041</v>
+      </c>
+      <c r="J8">
+        <v>0.03826428942309299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08652608544084954</v>
+        <v>0.06322046222533217</v>
       </c>
       <c r="C9">
-        <v>0.0268554484882646</v>
+        <v>-0.0348437159352313</v>
       </c>
       <c r="D9">
-        <v>-0.02237309628657166</v>
+        <v>0.02668818416839846</v>
       </c>
       <c r="E9">
-        <v>0.06804933556765806</v>
+        <v>0.03348567457949706</v>
       </c>
       <c r="F9">
-        <v>-0.03503176050311652</v>
+        <v>-0.08928012591894577</v>
       </c>
       <c r="G9">
-        <v>0.03509962358800992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02665927194810395</v>
+      </c>
+      <c r="H9">
+        <v>-0.02872083249944685</v>
+      </c>
+      <c r="I9">
+        <v>-0.009157005569594492</v>
+      </c>
+      <c r="J9">
+        <v>0.0064408417584574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.01505450604255115</v>
+        <v>0.01015443877050458</v>
       </c>
       <c r="C10">
-        <v>-0.1614818247711963</v>
+        <v>0.1603286893079698</v>
       </c>
       <c r="D10">
-        <v>0.01354805280819981</v>
+        <v>-0.01509555904715433</v>
       </c>
       <c r="E10">
-        <v>0.05142514967451416</v>
+        <v>0.05164105299550698</v>
       </c>
       <c r="F10">
-        <v>-0.009362407069358397</v>
+        <v>-0.03362940263445056</v>
       </c>
       <c r="G10">
-        <v>-0.002064670088663365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02036946994411456</v>
+      </c>
+      <c r="H10">
+        <v>0.005964703040990202</v>
+      </c>
+      <c r="I10">
+        <v>-0.119962343289223</v>
+      </c>
+      <c r="J10">
+        <v>0.01057502280337757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05732551674488409</v>
+        <v>0.04861606392269036</v>
       </c>
       <c r="C11">
-        <v>0.002373001185063987</v>
+        <v>-0.02143702071569595</v>
       </c>
       <c r="D11">
-        <v>0.01036539900468379</v>
+        <v>0.006397393167929775</v>
       </c>
       <c r="E11">
-        <v>0.04138567081988594</v>
+        <v>0.03897959234524452</v>
       </c>
       <c r="F11">
-        <v>-0.008154521847476096</v>
+        <v>-0.02365973592328178</v>
       </c>
       <c r="G11">
-        <v>-0.01620308275198572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.002620759423804848</v>
+      </c>
+      <c r="H11">
+        <v>-0.01397979507096563</v>
+      </c>
+      <c r="I11">
+        <v>0.01685972125078208</v>
+      </c>
+      <c r="J11">
+        <v>0.009349886717891833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04330957067655745</v>
+        <v>0.04384476209642451</v>
       </c>
       <c r="C12">
-        <v>0.01089026267165762</v>
+        <v>-0.02218796978878121</v>
       </c>
       <c r="D12">
-        <v>0.008555876467816354</v>
+        <v>0.006169172662148228</v>
       </c>
       <c r="E12">
-        <v>0.03382150006910051</v>
+        <v>0.01598005918261238</v>
       </c>
       <c r="F12">
-        <v>-0.003566426007974334</v>
+        <v>-0.02091924372912116</v>
       </c>
       <c r="G12">
-        <v>0.002481995421699045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.003482281397963504</v>
+      </c>
+      <c r="H12">
+        <v>-0.01133588013428747</v>
+      </c>
+      <c r="I12">
+        <v>0.01813964816876748</v>
+      </c>
+      <c r="J12">
+        <v>0.00308641111094133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06110841837483266</v>
+        <v>0.04160558190939009</v>
       </c>
       <c r="C13">
-        <v>0.01683924066462788</v>
+        <v>-0.02195517958502276</v>
       </c>
       <c r="D13">
-        <v>0.01876479334665647</v>
+        <v>0.008149838849879455</v>
       </c>
       <c r="E13">
-        <v>0.1061701994423483</v>
+        <v>0.08164953678475058</v>
       </c>
       <c r="F13">
-        <v>-0.02110424921967648</v>
+        <v>-0.06547892977707878</v>
       </c>
       <c r="G13">
-        <v>0.04574374939788538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.009134508799728028</v>
+      </c>
+      <c r="H13">
+        <v>-0.06050668348248549</v>
+      </c>
+      <c r="I13">
+        <v>-0.01029085239979245</v>
+      </c>
+      <c r="J13">
+        <v>0.02242377152629011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03845400798989816</v>
+        <v>0.02835884652363324</v>
       </c>
       <c r="C14">
-        <v>0.006795713609974773</v>
+        <v>-0.01455044373310072</v>
       </c>
       <c r="D14">
-        <v>-0.01942521363039047</v>
+        <v>0.02345728178879759</v>
       </c>
       <c r="E14">
-        <v>0.02114127042577775</v>
+        <v>0.018502149561742</v>
       </c>
       <c r="F14">
-        <v>0.003421514659348391</v>
+        <v>-0.0363166531845578</v>
       </c>
       <c r="G14">
-        <v>0.03650899818961475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01657430199082155</v>
+      </c>
+      <c r="H14">
+        <v>-0.05805887648470343</v>
+      </c>
+      <c r="I14">
+        <v>-0.01806914146882371</v>
+      </c>
+      <c r="J14">
+        <v>-0.007835678790856115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04883018521143043</v>
+        <v>0.04195608287856062</v>
       </c>
       <c r="C16">
-        <v>0.02117359046628836</v>
+        <v>-0.02897150427087394</v>
       </c>
       <c r="D16">
-        <v>0.01996589765584277</v>
+        <v>0.00114574842677581</v>
       </c>
       <c r="E16">
-        <v>0.03761740214134719</v>
+        <v>0.03223325234593104</v>
       </c>
       <c r="F16">
-        <v>-0.001676366043061419</v>
+        <v>-0.02289427172891646</v>
       </c>
       <c r="G16">
-        <v>-0.01295228412416577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.00610353114065653</v>
+      </c>
+      <c r="H16">
+        <v>-0.01593097848244325</v>
+      </c>
+      <c r="I16">
+        <v>0.01531346697238053</v>
+      </c>
+      <c r="J16">
+        <v>0.008562017790221805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05396266490481422</v>
+        <v>0.04589826660235057</v>
       </c>
       <c r="C19">
-        <v>0.02925137352590372</v>
+        <v>-0.03516469704241246</v>
       </c>
       <c r="D19">
-        <v>0.005219641859209135</v>
+        <v>0.01007418777038514</v>
       </c>
       <c r="E19">
-        <v>0.07615376419564068</v>
+        <v>0.06081972765348773</v>
       </c>
       <c r="F19">
-        <v>0.003591997092782248</v>
+        <v>-0.06855854574415447</v>
       </c>
       <c r="G19">
-        <v>0.05964551354184443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.002667789361454432</v>
+      </c>
+      <c r="H19">
+        <v>-0.08724550644467949</v>
+      </c>
+      <c r="I19">
+        <v>-0.03774053915742362</v>
+      </c>
+      <c r="J19">
+        <v>0.01680621802025923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03838036720163454</v>
+        <v>0.01933967733953245</v>
       </c>
       <c r="C20">
-        <v>0.03400729206242607</v>
+        <v>-0.03345764112588724</v>
       </c>
       <c r="D20">
-        <v>-0.005553953346630764</v>
+        <v>0.0164334391918042</v>
       </c>
       <c r="E20">
-        <v>0.06693905576850234</v>
+        <v>0.04007087860042447</v>
       </c>
       <c r="F20">
-        <v>0.01355410062297031</v>
+        <v>-0.06011989450866596</v>
       </c>
       <c r="G20">
-        <v>0.04211677489133588</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.008401767276642179</v>
+      </c>
+      <c r="H20">
+        <v>-0.07659322116929783</v>
+      </c>
+      <c r="I20">
+        <v>-0.01508241953403828</v>
+      </c>
+      <c r="J20">
+        <v>0.04761320346977421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.04011994318972886</v>
+        <v>0.01892331446467832</v>
       </c>
       <c r="C21">
-        <v>0.01608126024029723</v>
+        <v>-0.02493376141795094</v>
       </c>
       <c r="D21">
-        <v>0.01438111209580469</v>
+        <v>-0.001870118553033638</v>
       </c>
       <c r="E21">
-        <v>0.082859193717968</v>
+        <v>0.0433783883556957</v>
       </c>
       <c r="F21">
-        <v>-0.04269454308479616</v>
+        <v>-0.06827871091522447</v>
       </c>
       <c r="G21">
-        <v>0.04145726204491291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02172329616446266</v>
+      </c>
+      <c r="H21">
+        <v>-0.04230548953909467</v>
+      </c>
+      <c r="I21">
+        <v>0.005100031703570882</v>
+      </c>
+      <c r="J21">
+        <v>-0.01405880106647657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04849064565335184</v>
+        <v>0.04174566895120026</v>
       </c>
       <c r="C24">
-        <v>0.01302437902538741</v>
+        <v>-0.01897128051441799</v>
       </c>
       <c r="D24">
-        <v>0.008126119062339772</v>
+        <v>0.006442887530414559</v>
       </c>
       <c r="E24">
-        <v>0.04773122973959724</v>
+        <v>0.03441733534144467</v>
       </c>
       <c r="F24">
-        <v>-0.004055170025244388</v>
+        <v>-0.02780564722287016</v>
       </c>
       <c r="G24">
-        <v>-0.007698994179626617</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01016607645650363</v>
+      </c>
+      <c r="H24">
+        <v>-0.01626791744887064</v>
+      </c>
+      <c r="I24">
+        <v>0.01285449376235197</v>
+      </c>
+      <c r="J24">
+        <v>0.01733264697250151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.04962174007065773</v>
+        <v>0.04301962678597423</v>
       </c>
       <c r="C25">
-        <v>0.004227320683813714</v>
+        <v>-0.01963186429067349</v>
       </c>
       <c r="D25">
-        <v>0.01100188496457134</v>
+        <v>0.003561989827231311</v>
       </c>
       <c r="E25">
-        <v>0.04432716767209188</v>
+        <v>0.03643795428607777</v>
       </c>
       <c r="F25">
-        <v>-0.01055570925429837</v>
+        <v>-0.03246288803798374</v>
       </c>
       <c r="G25">
-        <v>-0.01279552504816916</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.00323301937226348</v>
+      </c>
+      <c r="H25">
+        <v>-0.009860113362924349</v>
+      </c>
+      <c r="I25">
+        <v>0.0156338949458832</v>
+      </c>
+      <c r="J25">
+        <v>0.006188668283895523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.005790009323327948</v>
+        <v>0.01241196832026574</v>
       </c>
       <c r="C26">
-        <v>0.01511604451659738</v>
+        <v>-0.01637331675701983</v>
       </c>
       <c r="D26">
-        <v>-0.004485148910756222</v>
+        <v>-0.001079447638869587</v>
       </c>
       <c r="E26">
-        <v>0.0507894739407066</v>
+        <v>0.04350036133183662</v>
       </c>
       <c r="F26">
-        <v>-0.02055640798887034</v>
+        <v>-0.03106539750440277</v>
       </c>
       <c r="G26">
-        <v>0.01580577518944859</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.009140270574134782</v>
+      </c>
+      <c r="H26">
+        <v>-0.03776888952570551</v>
+      </c>
+      <c r="I26">
+        <v>0.004652476039140324</v>
+      </c>
+      <c r="J26">
+        <v>0.01211532826638891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1134019504880575</v>
+        <v>0.0867065198779806</v>
       </c>
       <c r="C27">
-        <v>0.0169488777662315</v>
+        <v>-0.02695581548996286</v>
       </c>
       <c r="D27">
-        <v>-0.007444614572255289</v>
+        <v>0.02989753096339638</v>
       </c>
       <c r="E27">
-        <v>0.1107327011532873</v>
+        <v>0.04597603832137888</v>
       </c>
       <c r="F27">
-        <v>-0.02078743288548733</v>
+        <v>-0.07445848245041987</v>
       </c>
       <c r="G27">
-        <v>-0.006743013901647039</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.002205409730964508</v>
+      </c>
+      <c r="H27">
+        <v>-0.01049352004736145</v>
+      </c>
+      <c r="I27">
+        <v>-0.003778804352872629</v>
+      </c>
+      <c r="J27">
+        <v>0.02835054925016778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.01404324956746497</v>
+        <v>0.02409883135982287</v>
       </c>
       <c r="C28">
-        <v>-0.241006434440605</v>
+        <v>0.2327508310823962</v>
       </c>
       <c r="D28">
-        <v>0.02355334528933132</v>
+        <v>-0.02250716658953972</v>
       </c>
       <c r="E28">
-        <v>0.02550641038583219</v>
+        <v>0.04091960628768453</v>
       </c>
       <c r="F28">
-        <v>-0.008853676725035705</v>
+        <v>-0.02792921613218851</v>
       </c>
       <c r="G28">
-        <v>-0.02127530483562879</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02420627340919251</v>
+      </c>
+      <c r="H28">
+        <v>0.02878343196781867</v>
+      </c>
+      <c r="I28">
+        <v>-0.164977904404787</v>
+      </c>
+      <c r="J28">
+        <v>0.02640758535037135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02106702927797788</v>
+        <v>0.01967902926182256</v>
       </c>
       <c r="C29">
-        <v>0.01697038729229504</v>
+        <v>-0.01841517142625304</v>
       </c>
       <c r="D29">
-        <v>-0.02168501451143415</v>
+        <v>0.02203541249844062</v>
       </c>
       <c r="E29">
-        <v>0.03029012049410642</v>
+        <v>0.01420969975456146</v>
       </c>
       <c r="F29">
-        <v>-0.009301691160667208</v>
+        <v>-0.04091956051796647</v>
       </c>
       <c r="G29">
-        <v>0.03608405216149361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.0167487944490905</v>
+      </c>
+      <c r="H29">
+        <v>-0.05679158044189121</v>
+      </c>
+      <c r="I29">
+        <v>-0.008460980408788312</v>
+      </c>
+      <c r="J29">
+        <v>-0.01994215715723448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1055184217065818</v>
+        <v>0.09973204471642692</v>
       </c>
       <c r="C30">
-        <v>0.009423577246839331</v>
+        <v>-0.03545982969126989</v>
       </c>
       <c r="D30">
-        <v>-0.005864364847385247</v>
+        <v>0.03245734238180645</v>
       </c>
       <c r="E30">
-        <v>0.1259769100277775</v>
+        <v>0.08887066432390794</v>
       </c>
       <c r="F30">
-        <v>-0.03181974804391296</v>
+        <v>-0.07030711625547763</v>
       </c>
       <c r="G30">
-        <v>-0.07259984710347701</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01550086121657285</v>
+      </c>
+      <c r="H30">
+        <v>-0.01438587407275517</v>
+      </c>
+      <c r="I30">
+        <v>0.02996201087136996</v>
+      </c>
+      <c r="J30">
+        <v>-0.005741613924260989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05669122842150592</v>
+        <v>0.05953933970075161</v>
       </c>
       <c r="C31">
-        <v>0.009930635305305288</v>
+        <v>-0.01725640929915789</v>
       </c>
       <c r="D31">
-        <v>-0.02020217726630925</v>
+        <v>0.01965342536561775</v>
       </c>
       <c r="E31">
-        <v>-0.02016167813436443</v>
+        <v>0.01188259404101328</v>
       </c>
       <c r="F31">
-        <v>-0.005152091223441483</v>
+        <v>0.005680750670238208</v>
       </c>
       <c r="G31">
-        <v>0.00821365313646342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03612938605856325</v>
+      </c>
+      <c r="H31">
+        <v>-0.0468051527826572</v>
+      </c>
+      <c r="I31">
+        <v>-0.01435249983030713</v>
+      </c>
+      <c r="J31">
+        <v>-0.01966925696973581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.07044643997477194</v>
+        <v>0.04802088508262427</v>
       </c>
       <c r="C32">
-        <v>0.02598752162264139</v>
+        <v>-0.04346912402290984</v>
       </c>
       <c r="D32">
-        <v>-0.002712990385497876</v>
+        <v>0.02382633434352641</v>
       </c>
       <c r="E32">
-        <v>0.1172816310393136</v>
+        <v>0.05436240025799047</v>
       </c>
       <c r="F32">
-        <v>0.008300211467839588</v>
+        <v>-0.081786865104975</v>
       </c>
       <c r="G32">
-        <v>0.03840598773676616</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.008407918402651112</v>
+      </c>
+      <c r="H32">
+        <v>-0.05557015483939765</v>
+      </c>
+      <c r="I32">
+        <v>-0.01974935994277794</v>
+      </c>
+      <c r="J32">
+        <v>-0.001714218683959035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.07008703122732443</v>
+        <v>0.0581688524825225</v>
       </c>
       <c r="C33">
-        <v>0.03013554309004261</v>
+        <v>-0.04476063162480395</v>
       </c>
       <c r="D33">
-        <v>-0.003651197555438768</v>
+        <v>0.007953394886476053</v>
       </c>
       <c r="E33">
-        <v>0.0694673327235968</v>
+        <v>0.06335685774719463</v>
       </c>
       <c r="F33">
-        <v>-0.04206686963909066</v>
+        <v>-0.05436654452876115</v>
       </c>
       <c r="G33">
-        <v>0.0187266565127179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01919184535040506</v>
+      </c>
+      <c r="H33">
+        <v>-0.0502039268588226</v>
+      </c>
+      <c r="I33">
+        <v>0.0162672242319344</v>
+      </c>
+      <c r="J33">
+        <v>0.01015976644698731</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04709715623370764</v>
+        <v>0.04150211860975207</v>
       </c>
       <c r="C34">
-        <v>0.01227170106922744</v>
+        <v>-0.02430897610438609</v>
       </c>
       <c r="D34">
-        <v>0.007725024777789645</v>
+        <v>0.009424708774844423</v>
       </c>
       <c r="E34">
-        <v>0.02592020591428919</v>
+        <v>0.02681331170722644</v>
       </c>
       <c r="F34">
-        <v>0.002461693354840637</v>
+        <v>-0.02496233025771739</v>
       </c>
       <c r="G34">
-        <v>0.004554809221740267</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0005743632870962833</v>
+      </c>
+      <c r="H34">
+        <v>-0.0204647185472608</v>
+      </c>
+      <c r="I34">
+        <v>0.01360925760956519</v>
+      </c>
+      <c r="J34">
+        <v>-0.0002558972386863459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01302120012212652</v>
+        <v>0.01457327270944225</v>
       </c>
       <c r="C36">
-        <v>-0.01023574994441124</v>
+        <v>-0.0006625099633542136</v>
       </c>
       <c r="D36">
-        <v>-0.004941836978339411</v>
+        <v>0.007857885401092345</v>
       </c>
       <c r="E36">
-        <v>0.02341470079840408</v>
+        <v>0.01712705764424842</v>
       </c>
       <c r="F36">
-        <v>-0.009438248335693525</v>
+        <v>-0.02511071335220306</v>
       </c>
       <c r="G36">
-        <v>0.01001054672265835</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01552960920450077</v>
+      </c>
+      <c r="H36">
+        <v>-0.03272945338814234</v>
+      </c>
+      <c r="I36">
+        <v>-0.004397548230208123</v>
+      </c>
+      <c r="J36">
+        <v>-0.01958788006021069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05600681950029934</v>
+        <v>0.03158695426629945</v>
       </c>
       <c r="C38">
-        <v>0.003129142372733076</v>
+        <v>-0.008452372561599317</v>
       </c>
       <c r="D38">
-        <v>-0.02235363930096353</v>
+        <v>0.008793766187674662</v>
       </c>
       <c r="E38">
-        <v>0.03219701548109589</v>
+        <v>0.02973404813763548</v>
       </c>
       <c r="F38">
-        <v>-0.01106439662181671</v>
+        <v>-0.04260559563830388</v>
       </c>
       <c r="G38">
-        <v>0.03917378491027033</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02369067033180818</v>
+      </c>
+      <c r="H38">
+        <v>-0.01874408835412688</v>
+      </c>
+      <c r="I38">
+        <v>0.002244884146495386</v>
+      </c>
+      <c r="J38">
+        <v>-0.02910398993683696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07571874329976361</v>
+        <v>0.05860697302658509</v>
       </c>
       <c r="C39">
-        <v>0.01233335337595711</v>
+        <v>-0.03487520709895391</v>
       </c>
       <c r="D39">
-        <v>0.004743004138868624</v>
+        <v>0.01745531753243936</v>
       </c>
       <c r="E39">
-        <v>0.04838655801583645</v>
+        <v>0.05282538622420876</v>
       </c>
       <c r="F39">
-        <v>-0.02334560603954697</v>
+        <v>-0.03255449585898911</v>
       </c>
       <c r="G39">
-        <v>-0.007440186950232524</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01009643840013351</v>
+      </c>
+      <c r="H39">
+        <v>-0.01676862034677276</v>
+      </c>
+      <c r="I39">
+        <v>0.03306604505011077</v>
+      </c>
+      <c r="J39">
+        <v>0.004170423397485173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.0728740766908606</v>
+        <v>0.05659025864743958</v>
       </c>
       <c r="C40">
-        <v>0.02882390741683972</v>
+        <v>-0.03378877016807656</v>
       </c>
       <c r="D40">
-        <v>0.006081199844171669</v>
+        <v>0.02561402718935389</v>
       </c>
       <c r="E40">
-        <v>0.1088417788691695</v>
+        <v>0.09137504121527026</v>
       </c>
       <c r="F40">
-        <v>-0.03629006738905487</v>
+        <v>-0.06269525604735843</v>
       </c>
       <c r="G40">
-        <v>0.09058791984239575</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.004873903523291971</v>
+      </c>
+      <c r="H40">
+        <v>-0.08090970745475044</v>
+      </c>
+      <c r="I40">
+        <v>-0.005055703883762608</v>
+      </c>
+      <c r="J40">
+        <v>0.04693306859049953</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.00429565506767072</v>
+        <v>0.001333063195327225</v>
       </c>
       <c r="C41">
-        <v>0.01183017929139362</v>
+        <v>-0.01047103305745123</v>
       </c>
       <c r="D41">
-        <v>-0.01493352659022063</v>
+        <v>0.00560020770167487</v>
       </c>
       <c r="E41">
-        <v>0.01017720401948294</v>
+        <v>0.008195992890756397</v>
       </c>
       <c r="F41">
-        <v>-0.02127310555356647</v>
+        <v>-0.01605444677596592</v>
       </c>
       <c r="G41">
-        <v>0.02369527881217585</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02841174758690394</v>
+      </c>
+      <c r="H41">
+        <v>-0.04032941833252483</v>
+      </c>
+      <c r="I41">
+        <v>-0.02384469950638042</v>
+      </c>
+      <c r="J41">
+        <v>-0.002062096841034666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1378013342836159</v>
+        <v>0.240221530705496</v>
       </c>
       <c r="C42">
-        <v>0.1814863938458407</v>
+        <v>-0.1546244872708159</v>
       </c>
       <c r="D42">
-        <v>0.9273976555371658</v>
+        <v>-0.9081703198413421</v>
       </c>
       <c r="E42">
-        <v>-0.1199638504242896</v>
+        <v>0.03044376788920061</v>
       </c>
       <c r="F42">
-        <v>0.03735122976597156</v>
+        <v>0.2453644467285038</v>
       </c>
       <c r="G42">
-        <v>-0.123736602653696</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.004773180061932464</v>
+      </c>
+      <c r="H42">
+        <v>-0.006534857443580738</v>
+      </c>
+      <c r="I42">
+        <v>-0.06010773510921175</v>
+      </c>
+      <c r="J42">
+        <v>0.005695616905311757</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008248057337526642</v>
+        <v>0.003491648781502034</v>
       </c>
       <c r="C43">
-        <v>0.01422260291115789</v>
+        <v>-0.01310867075247327</v>
       </c>
       <c r="D43">
-        <v>-0.01568742011033151</v>
+        <v>0.006774114806806499</v>
       </c>
       <c r="E43">
-        <v>0.03157648400577949</v>
+        <v>0.01801897423640664</v>
       </c>
       <c r="F43">
-        <v>0.002715523491124319</v>
+        <v>-0.02341637064636745</v>
       </c>
       <c r="G43">
-        <v>0.01716999424294876</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.009226377378476302</v>
+      </c>
+      <c r="H43">
+        <v>-0.03901512773419814</v>
+      </c>
+      <c r="I43">
+        <v>-0.01441117570760734</v>
+      </c>
+      <c r="J43">
+        <v>0.001962372465808608</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04156920987536532</v>
+        <v>0.02747597375868341</v>
       </c>
       <c r="C44">
-        <v>0.03873546614957923</v>
+        <v>-0.03253262436867518</v>
       </c>
       <c r="D44">
-        <v>0.002677233297758571</v>
+        <v>0.003932403241826725</v>
       </c>
       <c r="E44">
-        <v>0.1102991857218832</v>
+        <v>0.08367126769277543</v>
       </c>
       <c r="F44">
-        <v>-0.07564643469707961</v>
+        <v>-0.09039748710493617</v>
       </c>
       <c r="G44">
-        <v>0.1198707402861012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03693795208209031</v>
+      </c>
+      <c r="H44">
+        <v>-0.1180327869763671</v>
+      </c>
+      <c r="I44">
+        <v>-0.02219434490230243</v>
+      </c>
+      <c r="J44">
+        <v>0.01295924686842174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02226649282324608</v>
+        <v>0.02171350049624551</v>
       </c>
       <c r="C46">
-        <v>0.01280371667104016</v>
+        <v>-0.02481046536982421</v>
       </c>
       <c r="D46">
-        <v>-0.02335606294828701</v>
+        <v>0.02026386097270085</v>
       </c>
       <c r="E46">
-        <v>0.02282951604874829</v>
+        <v>0.02995352942301605</v>
       </c>
       <c r="F46">
-        <v>-0.02303592677533432</v>
+        <v>-0.03703555403893215</v>
       </c>
       <c r="G46">
-        <v>0.03698531935167241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01926127594659257</v>
+      </c>
+      <c r="H46">
+        <v>-0.06225844073565806</v>
+      </c>
+      <c r="I46">
+        <v>-0.016106853267627</v>
+      </c>
+      <c r="J46">
+        <v>0.002491488372204363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08118928738496782</v>
+        <v>0.08881664661496859</v>
       </c>
       <c r="C47">
-        <v>0.004995763096432678</v>
+        <v>-0.01656490963309053</v>
       </c>
       <c r="D47">
-        <v>-0.02270590553250864</v>
+        <v>0.02511984365570378</v>
       </c>
       <c r="E47">
-        <v>-0.02311275433747803</v>
+        <v>-0.003510977011985446</v>
       </c>
       <c r="F47">
-        <v>-0.001587983193531855</v>
+        <v>0.002942191262823843</v>
       </c>
       <c r="G47">
-        <v>0.02990315540783554</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03511236077608289</v>
+      </c>
+      <c r="H47">
+        <v>-0.06441308305422369</v>
+      </c>
+      <c r="I47">
+        <v>-0.02375317659248673</v>
+      </c>
+      <c r="J47">
+        <v>-0.005152119341494206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01575697077406652</v>
+        <v>0.01678455485621662</v>
       </c>
       <c r="C48">
-        <v>0.01604414472912036</v>
+        <v>-0.01854900285512389</v>
       </c>
       <c r="D48">
-        <v>-0.01234448430359388</v>
+        <v>0.009415675867754903</v>
       </c>
       <c r="E48">
-        <v>0.03455593248620697</v>
+        <v>0.01837251912484972</v>
       </c>
       <c r="F48">
-        <v>-0.01674785634276138</v>
+        <v>-0.03181335964110939</v>
       </c>
       <c r="G48">
-        <v>0.01032599592912275</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.008509078756050224</v>
+      </c>
+      <c r="H48">
+        <v>-0.02480116969730378</v>
+      </c>
+      <c r="I48">
+        <v>-0.01394896704670831</v>
+      </c>
+      <c r="J48">
+        <v>-0.002105204906226141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07886948995486766</v>
+        <v>0.08235416544750684</v>
       </c>
       <c r="C50">
-        <v>0.01904431376581609</v>
+        <v>-0.02795733973138326</v>
       </c>
       <c r="D50">
-        <v>-0.02507635830494478</v>
+        <v>0.0205702159597725</v>
       </c>
       <c r="E50">
-        <v>-0.02866995696965887</v>
+        <v>-0.005022123344785695</v>
       </c>
       <c r="F50">
-        <v>0.001441413485470033</v>
+        <v>-0.003987225719267145</v>
       </c>
       <c r="G50">
-        <v>0.0120730277844701</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.006671079699512247</v>
+      </c>
+      <c r="H50">
+        <v>-0.05340028119276348</v>
+      </c>
+      <c r="I50">
+        <v>-0.007755624532028989</v>
+      </c>
+      <c r="J50">
+        <v>-0.05195530937834712</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.07152812132074107</v>
+        <v>0.04870995878032356</v>
       </c>
       <c r="C51">
-        <v>-0.02308519654350336</v>
+        <v>0.004915567044330433</v>
       </c>
       <c r="D51">
-        <v>0.009329145312752153</v>
+        <v>0.01105264470064583</v>
       </c>
       <c r="E51">
-        <v>0.07265117663065443</v>
+        <v>0.08077362311583169</v>
       </c>
       <c r="F51">
-        <v>-0.05137050975990372</v>
+        <v>-0.05413680697699377</v>
       </c>
       <c r="G51">
-        <v>0.01072216110267938</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04516025682219128</v>
+      </c>
+      <c r="H51">
+        <v>-0.06410041214466483</v>
+      </c>
+      <c r="I51">
+        <v>-0.03581314017140853</v>
+      </c>
+      <c r="J51">
+        <v>-0.00720814022482822</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1442238537193207</v>
+        <v>0.1283472025076852</v>
       </c>
       <c r="C53">
-        <v>0.007664571871050757</v>
+        <v>-0.03316570633975512</v>
       </c>
       <c r="D53">
-        <v>-0.04767492239400615</v>
+        <v>0.04832996784895115</v>
       </c>
       <c r="E53">
-        <v>-0.03524714593101354</v>
+        <v>-0.02556044313974971</v>
       </c>
       <c r="F53">
-        <v>0.01194957744594779</v>
+        <v>0.02044423870469031</v>
       </c>
       <c r="G53">
-        <v>-0.003082754943115047</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02229218401518329</v>
+      </c>
+      <c r="H53">
+        <v>-0.006918040477455046</v>
+      </c>
+      <c r="I53">
+        <v>-0.03119519236214138</v>
+      </c>
+      <c r="J53">
+        <v>0.04120916474513552</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02666000161691848</v>
+        <v>0.02224167901063966</v>
       </c>
       <c r="C54">
-        <v>-0.004458414580605508</v>
+        <v>-0.006940728921056153</v>
       </c>
       <c r="D54">
-        <v>-0.02384067817280001</v>
+        <v>0.0243951324554235</v>
       </c>
       <c r="E54">
-        <v>0.03051098168299204</v>
+        <v>0.01736465640058846</v>
       </c>
       <c r="F54">
-        <v>-0.03864167167244148</v>
+        <v>-0.04319472202877075</v>
       </c>
       <c r="G54">
-        <v>0.04592364460582284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03340251851117668</v>
+      </c>
+      <c r="H54">
+        <v>-0.05534234358536644</v>
+      </c>
+      <c r="I54">
+        <v>-0.03487565273352795</v>
+      </c>
+      <c r="J54">
+        <v>-0.02522800312077999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09736222146000126</v>
+        <v>0.1015932908317465</v>
       </c>
       <c r="C55">
-        <v>-0.003970195767712342</v>
+        <v>-0.01774888103467798</v>
       </c>
       <c r="D55">
-        <v>-0.04027917469740905</v>
+        <v>0.0306106787568394</v>
       </c>
       <c r="E55">
-        <v>0.0004376045149664075</v>
+        <v>-0.03682899933354285</v>
       </c>
       <c r="F55">
-        <v>0.02741045353994648</v>
+        <v>-0.00711822265881407</v>
       </c>
       <c r="G55">
-        <v>-0.005714428285357434</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01194907630154642</v>
+      </c>
+      <c r="H55">
+        <v>-0.02182780689459811</v>
+      </c>
+      <c r="I55">
+        <v>-0.0109145978909263</v>
+      </c>
+      <c r="J55">
+        <v>0.02997986128866706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1783589665579408</v>
+        <v>0.1693218111594486</v>
       </c>
       <c r="C56">
-        <v>-0.02037319173588202</v>
+        <v>-0.01496508195435029</v>
       </c>
       <c r="D56">
-        <v>-0.08304970738451391</v>
+        <v>0.0844827885988244</v>
       </c>
       <c r="E56">
-        <v>-0.06171985636880819</v>
+        <v>-0.06911126198218959</v>
       </c>
       <c r="F56">
-        <v>0.06624405218516151</v>
+        <v>0.03510129517671663</v>
       </c>
       <c r="G56">
-        <v>-0.02367129901396958</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02345321701117517</v>
+      </c>
+      <c r="H56">
+        <v>0.03673999589169763</v>
+      </c>
+      <c r="I56">
+        <v>0.003123182029310351</v>
+      </c>
+      <c r="J56">
+        <v>0.06618736766387166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09087724800699233</v>
+        <v>0.06949410122553776</v>
       </c>
       <c r="C57">
-        <v>0.02426537293120684</v>
+        <v>-0.0282679881613188</v>
       </c>
       <c r="D57">
-        <v>-0.02291348555192147</v>
+        <v>0.01397856404923228</v>
       </c>
       <c r="E57">
-        <v>0.06676800909275085</v>
+        <v>0.05468705897385114</v>
       </c>
       <c r="F57">
-        <v>-0.01968443562886554</v>
+        <v>-0.04565086669655986</v>
       </c>
       <c r="G57">
-        <v>0.04058068267745666</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.007770062284143271</v>
+      </c>
+      <c r="H57">
+        <v>-0.0418448029577707</v>
+      </c>
+      <c r="I57">
+        <v>0.01305391879200768</v>
+      </c>
+      <c r="J57">
+        <v>0.03861011419554463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1645667767665235</v>
+        <v>0.1964720234045293</v>
       </c>
       <c r="C58">
-        <v>-0.004796903879120788</v>
+        <v>-0.0433721445294145</v>
       </c>
       <c r="D58">
-        <v>0.06033413228631661</v>
+        <v>-0.007314035626563276</v>
       </c>
       <c r="E58">
-        <v>0.1321814514078535</v>
+        <v>0.1568656694339122</v>
       </c>
       <c r="F58">
-        <v>0.07957063169639164</v>
+        <v>-0.1136937929798584</v>
       </c>
       <c r="G58">
-        <v>0.254756622396963</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1539496130203583</v>
+      </c>
+      <c r="H58">
+        <v>-0.3287704294260333</v>
+      </c>
+      <c r="I58">
+        <v>-0.03531659266983512</v>
+      </c>
+      <c r="J58">
+        <v>-0.6354815464638778</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.002097060285754508</v>
+        <v>0.0283697012968842</v>
       </c>
       <c r="C59">
-        <v>-0.2046654745374084</v>
+        <v>0.1990552492179471</v>
       </c>
       <c r="D59">
-        <v>-0.01052951262234638</v>
+        <v>0.01204031505484603</v>
       </c>
       <c r="E59">
-        <v>0.04944242202307434</v>
+        <v>0.06085146291719278</v>
       </c>
       <c r="F59">
-        <v>-0.008900869558493396</v>
+        <v>-0.02335127815371343</v>
       </c>
       <c r="G59">
-        <v>-0.02339517877574034</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0003167018276054193</v>
+      </c>
+      <c r="H59">
+        <v>0.02094892036979341</v>
+      </c>
+      <c r="I59">
+        <v>-0.07239117739271203</v>
+      </c>
+      <c r="J59">
+        <v>-0.02992927634551217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1882251297520496</v>
+        <v>0.1858647521194481</v>
       </c>
       <c r="C60">
-        <v>-0.1165192054715366</v>
+        <v>0.05674230847169617</v>
       </c>
       <c r="D60">
-        <v>-0.01422155354804311</v>
+        <v>0.02879095533948184</v>
       </c>
       <c r="E60">
-        <v>0.1737656318883631</v>
+        <v>0.200742422151703</v>
       </c>
       <c r="F60">
-        <v>-0.05831759626977325</v>
+        <v>-0.07772557300317599</v>
       </c>
       <c r="G60">
-        <v>-0.1618726994075441</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.07413741276058328</v>
+      </c>
+      <c r="H60">
+        <v>0.2405666034629043</v>
+      </c>
+      <c r="I60">
+        <v>0.1069258658803296</v>
+      </c>
+      <c r="J60">
+        <v>-0.009168045504703145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04854141852694766</v>
+        <v>0.03859863048919731</v>
       </c>
       <c r="C61">
-        <v>0.001623604036843937</v>
+        <v>-0.01868193758188788</v>
       </c>
       <c r="D61">
-        <v>0.01310122136099931</v>
+        <v>0.002490659824048511</v>
       </c>
       <c r="E61">
-        <v>0.04917324090455066</v>
+        <v>0.0390247249013407</v>
       </c>
       <c r="F61">
-        <v>-0.02252643181301503</v>
+        <v>-0.02742097717612154</v>
       </c>
       <c r="G61">
-        <v>-0.02113505991472191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.004277238174865634</v>
+      </c>
+      <c r="H61">
+        <v>-0.002482079878959367</v>
+      </c>
+      <c r="I61">
+        <v>0.0384556922456438</v>
+      </c>
+      <c r="J61">
+        <v>-0.02071224954838964</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04356255004434485</v>
+        <v>0.0296527603170416</v>
       </c>
       <c r="C63">
-        <v>-0.009091120173496227</v>
+        <v>-0.01383688810396457</v>
       </c>
       <c r="D63">
-        <v>-0.01370823819421343</v>
+        <v>0.01367368900393054</v>
       </c>
       <c r="E63">
-        <v>0.03637324515788358</v>
+        <v>0.02291954796709071</v>
       </c>
       <c r="F63">
-        <v>-0.006341055959820091</v>
+        <v>-0.02120688833730354</v>
       </c>
       <c r="G63">
-        <v>0.01079823339095793</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.006959264667374858</v>
+      </c>
+      <c r="H63">
+        <v>-0.0451355311103068</v>
+      </c>
+      <c r="I63">
+        <v>-0.03112025005871696</v>
+      </c>
+      <c r="J63">
+        <v>0.02225521040171235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.08854735482037111</v>
+        <v>0.06349704517917941</v>
       </c>
       <c r="C64">
-        <v>0.02954399279985472</v>
+        <v>-0.03971082502231821</v>
       </c>
       <c r="D64">
-        <v>-0.05365753820387278</v>
+        <v>0.03650707647586036</v>
       </c>
       <c r="E64">
-        <v>0.05703556888558774</v>
+        <v>0.01780415598636125</v>
       </c>
       <c r="F64">
-        <v>-0.09825441725368862</v>
+        <v>-0.07345621548393071</v>
       </c>
       <c r="G64">
-        <v>-0.06214212461849816</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06371175318422813</v>
+      </c>
+      <c r="H64">
+        <v>0.01791544115318738</v>
+      </c>
+      <c r="I64">
+        <v>-0.02366887587249089</v>
+      </c>
+      <c r="J64">
+        <v>0.06642738050101331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01524188870921361</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.003260388662667477</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0002609762475161277</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.004738935198317525</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001625297583852678</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02037976286173408</v>
+      </c>
+      <c r="H65">
+        <v>0.000496965377778201</v>
+      </c>
+      <c r="I65">
+        <v>0.004490617832400095</v>
+      </c>
+      <c r="J65">
+        <v>-0.0009539077928151398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09874374676552947</v>
+        <v>0.07121614057359094</v>
       </c>
       <c r="C66">
-        <v>0.01876489510546417</v>
+        <v>-0.04832841731722266</v>
       </c>
       <c r="D66">
-        <v>-0.03227479126874139</v>
+        <v>0.04396900315480898</v>
       </c>
       <c r="E66">
-        <v>0.08563059506269345</v>
+        <v>0.06726995135854691</v>
       </c>
       <c r="F66">
-        <v>-0.04575026813080497</v>
+        <v>-0.04374447313507539</v>
       </c>
       <c r="G66">
-        <v>-0.01309775925097961</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.009235726387800711</v>
+      </c>
+      <c r="H66">
+        <v>-0.00827333809156801</v>
+      </c>
+      <c r="I66">
+        <v>0.04849379108324649</v>
+      </c>
+      <c r="J66">
+        <v>0.03198118385389879</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.0638449282091053</v>
+        <v>0.04213704958666813</v>
       </c>
       <c r="C67">
-        <v>-0.02019945457930537</v>
+        <v>0.007247186787040967</v>
       </c>
       <c r="D67">
-        <v>-0.01046963134230202</v>
+        <v>0.006872934544594104</v>
       </c>
       <c r="E67">
-        <v>0.02589676119462095</v>
+        <v>0.02768817918894118</v>
       </c>
       <c r="F67">
-        <v>-0.008217030216427852</v>
+        <v>-0.02816157395198886</v>
       </c>
       <c r="G67">
-        <v>0.0354691610525746</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02801464740059707</v>
+      </c>
+      <c r="H67">
+        <v>-0.001470051093897106</v>
+      </c>
+      <c r="I67">
+        <v>0.03713474997197249</v>
+      </c>
+      <c r="J67">
+        <v>-0.01167532472487236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.002785474344454073</v>
+        <v>0.03524289341659848</v>
       </c>
       <c r="C68">
-        <v>-0.2437655451505199</v>
+        <v>0.2348581929989048</v>
       </c>
       <c r="D68">
-        <v>0.006865560703997093</v>
+        <v>0.003230249372134556</v>
       </c>
       <c r="E68">
-        <v>0.03294172770712101</v>
+        <v>0.04810451769273019</v>
       </c>
       <c r="F68">
-        <v>0.005101205568707412</v>
+        <v>-0.01936743871022711</v>
       </c>
       <c r="G68">
-        <v>-0.0148483022130359</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.009353036559297595</v>
+      </c>
+      <c r="H68">
+        <v>0.02302500431995009</v>
+      </c>
+      <c r="I68">
+        <v>-0.1675666699430319</v>
+      </c>
+      <c r="J68">
+        <v>-0.02226271077404895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06628184838494054</v>
+        <v>0.06931664397108614</v>
       </c>
       <c r="C69">
-        <v>0.004710420859636162</v>
+        <v>-0.0150546023994013</v>
       </c>
       <c r="D69">
-        <v>-0.02922957183170783</v>
+        <v>0.03096491442706715</v>
       </c>
       <c r="E69">
-        <v>-0.007632247648383043</v>
+        <v>0.007751890850146742</v>
       </c>
       <c r="F69">
-        <v>-0.0005396949911218179</v>
+        <v>0.0009831236021905767</v>
       </c>
       <c r="G69">
-        <v>0.01481586309737238</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02514677967656563</v>
+      </c>
+      <c r="H69">
+        <v>-0.04533537049948455</v>
+      </c>
+      <c r="I69">
+        <v>-0.001137454218437991</v>
+      </c>
+      <c r="J69">
+        <v>-0.005594820351306697</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.004084806919142115</v>
+        <v>0.04095324995430051</v>
       </c>
       <c r="C71">
-        <v>-0.2588473975517306</v>
+        <v>0.2488079567417439</v>
       </c>
       <c r="D71">
-        <v>0.009269170116273508</v>
+        <v>-0.0157127078874647</v>
       </c>
       <c r="E71">
-        <v>0.06117727077853688</v>
+        <v>0.0786736612381838</v>
       </c>
       <c r="F71">
-        <v>-0.01329217404644683</v>
+        <v>-0.01529084430466908</v>
       </c>
       <c r="G71">
-        <v>-0.1012265749489115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01347955294947082</v>
+      </c>
+      <c r="H71">
+        <v>0.04098638447786642</v>
+      </c>
+      <c r="I71">
+        <v>-0.1422824306736734</v>
+      </c>
+      <c r="J71">
+        <v>-0.03308123788396182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1173572115228648</v>
+        <v>0.1190466255784701</v>
       </c>
       <c r="C72">
-        <v>-0.01881293498927254</v>
+        <v>-0.004090706881140021</v>
       </c>
       <c r="D72">
-        <v>-0.02913819195180461</v>
+        <v>0.05759362947199516</v>
       </c>
       <c r="E72">
-        <v>0.08390985554398764</v>
+        <v>0.05940256669051356</v>
       </c>
       <c r="F72">
-        <v>-0.007683246293318463</v>
+        <v>-0.0619344630229507</v>
       </c>
       <c r="G72">
-        <v>0.04855860073698592</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04051958164079254</v>
+      </c>
+      <c r="H72">
+        <v>-0.0004624320444118247</v>
+      </c>
+      <c r="I72">
+        <v>0.01966316166187795</v>
+      </c>
+      <c r="J72">
+        <v>-0.1302487882506218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2800467068523078</v>
+        <v>0.2716293431564771</v>
       </c>
       <c r="C73">
-        <v>-0.197132097252137</v>
+        <v>0.1074021436403932</v>
       </c>
       <c r="D73">
-        <v>0.0443157045309202</v>
+        <v>-0.00368301236537845</v>
       </c>
       <c r="E73">
-        <v>0.3051630339684539</v>
+        <v>0.3241629153533708</v>
       </c>
       <c r="F73">
-        <v>-0.08576923424968895</v>
+        <v>-0.1030211693443172</v>
       </c>
       <c r="G73">
-        <v>-0.3664502315289615</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1454806989757076</v>
+      </c>
+      <c r="H73">
+        <v>0.4372638154047039</v>
+      </c>
+      <c r="I73">
+        <v>0.3342935621478373</v>
+      </c>
+      <c r="J73">
+        <v>-0.07722001237500668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1574228802799627</v>
+        <v>0.1516128354294672</v>
       </c>
       <c r="C74">
-        <v>-0.008259820019346496</v>
+        <v>-0.01837907528068351</v>
       </c>
       <c r="D74">
-        <v>-0.04980583402862784</v>
+        <v>0.04684363627932465</v>
       </c>
       <c r="E74">
-        <v>0.0001494181902736316</v>
+        <v>-0.03248363281308812</v>
       </c>
       <c r="F74">
-        <v>0.04959226305249444</v>
+        <v>0.02589975234462494</v>
       </c>
       <c r="G74">
-        <v>-0.03271778954874834</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01708527049477162</v>
+      </c>
+      <c r="H74">
+        <v>0.01672546404508808</v>
+      </c>
+      <c r="I74">
+        <v>0.01329050768818581</v>
+      </c>
+      <c r="J74">
+        <v>0.09205349816270712</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2357764315798629</v>
+        <v>0.2423277890630718</v>
       </c>
       <c r="C75">
-        <v>-0.0146117645222312</v>
+        <v>-0.01819234140960322</v>
       </c>
       <c r="D75">
-        <v>-0.0664941700621822</v>
+        <v>0.1013341216608656</v>
       </c>
       <c r="E75">
-        <v>-0.117654219962514</v>
+        <v>-0.09831895743700468</v>
       </c>
       <c r="F75">
-        <v>0.06934423957210348</v>
+        <v>0.08966895489989517</v>
       </c>
       <c r="G75">
-        <v>-0.0217307965237674</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.005813499363282707</v>
+      </c>
+      <c r="H75">
+        <v>0.01551156385571994</v>
+      </c>
+      <c r="I75">
+        <v>-0.05521567259406906</v>
+      </c>
+      <c r="J75">
+        <v>0.1141785154161182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.242200307646316</v>
+        <v>0.2653889517877758</v>
       </c>
       <c r="C76">
-        <v>-0.01925883168314778</v>
+        <v>-0.01262277798344136</v>
       </c>
       <c r="D76">
-        <v>-0.110600969532196</v>
+        <v>0.1283168862938258</v>
       </c>
       <c r="E76">
-        <v>-0.1017017018954406</v>
+        <v>-0.1441298009532459</v>
       </c>
       <c r="F76">
-        <v>0.08356171439381313</v>
+        <v>0.08959875839589185</v>
       </c>
       <c r="G76">
-        <v>-0.04023263273295487</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04833200318030595</v>
+      </c>
+      <c r="H76">
+        <v>0.02912735570058452</v>
+      </c>
+      <c r="I76">
+        <v>0.02816075392071611</v>
+      </c>
+      <c r="J76">
+        <v>0.1269336212970792</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1283496312594203</v>
+        <v>0.1337450844580215</v>
       </c>
       <c r="C77">
-        <v>0.01980701246243993</v>
+        <v>-0.05118756856099353</v>
       </c>
       <c r="D77">
-        <v>0.06726747584424458</v>
+        <v>-0.04291979880844805</v>
       </c>
       <c r="E77">
-        <v>0.1621900538341445</v>
+        <v>0.1191658990570492</v>
       </c>
       <c r="F77">
-        <v>-0.01893281892649896</v>
+        <v>-0.1255560809562155</v>
       </c>
       <c r="G77">
-        <v>0.1556953048341763</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.007619437347826908</v>
+      </c>
+      <c r="H77">
+        <v>-0.1882970986722668</v>
+      </c>
+      <c r="I77">
+        <v>-0.1595160016918257</v>
+      </c>
+      <c r="J77">
+        <v>0.1124984071112396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09322862644490806</v>
+        <v>0.08987539300494003</v>
       </c>
       <c r="C78">
-        <v>0.03192503542769085</v>
+        <v>-0.05819569129330371</v>
       </c>
       <c r="D78">
-        <v>0.02263362913660619</v>
+        <v>0.0006945312308351612</v>
       </c>
       <c r="E78">
-        <v>0.06323171568846198</v>
+        <v>0.05224702385574846</v>
       </c>
       <c r="F78">
-        <v>-0.01354458009531156</v>
+        <v>-0.07058124803533224</v>
       </c>
       <c r="G78">
-        <v>-0.00643356033181044</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.003632083972889296</v>
+      </c>
+      <c r="H78">
+        <v>-0.02633870707516244</v>
+      </c>
+      <c r="I78">
+        <v>-0.0308982490708945</v>
+      </c>
+      <c r="J78">
+        <v>0.01612435821303253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.0600253433960323</v>
+        <v>0.1126037876999346</v>
       </c>
       <c r="C80">
-        <v>0.006366467486688281</v>
+        <v>0.1193395968495249</v>
       </c>
       <c r="D80">
-        <v>0.00556808847558721</v>
+        <v>-0.2161930734892829</v>
       </c>
       <c r="E80">
-        <v>0.02771028956471483</v>
+        <v>-0.6217362684056678</v>
       </c>
       <c r="F80">
-        <v>0.03160616169463312</v>
+        <v>-0.7043205972945856</v>
       </c>
       <c r="G80">
-        <v>0.4374740509755917</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.001307763746992163</v>
+      </c>
+      <c r="H80">
+        <v>0.1298118583304536</v>
+      </c>
+      <c r="I80">
+        <v>0.06560959257773487</v>
+      </c>
+      <c r="J80">
+        <v>-0.08259792501074362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1607872718409961</v>
+        <v>0.1755083966183441</v>
       </c>
       <c r="C81">
-        <v>-0.01662306526624995</v>
+        <v>-0.003501614696462141</v>
       </c>
       <c r="D81">
-        <v>-0.05930531165546775</v>
+        <v>0.08416822555228666</v>
       </c>
       <c r="E81">
-        <v>-0.1163671649946769</v>
+        <v>-0.1120146679136836</v>
       </c>
       <c r="F81">
-        <v>0.09440210988471801</v>
+        <v>0.09230164040885294</v>
       </c>
       <c r="G81">
-        <v>-0.0131968218384843</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02141682667169049</v>
+      </c>
+      <c r="H81">
+        <v>0.00732149735497924</v>
+      </c>
+      <c r="I81">
+        <v>-0.02794341112391888</v>
+      </c>
+      <c r="J81">
+        <v>0.06245336500832622</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.08085514807257253</v>
+        <v>0.06414250477661204</v>
       </c>
       <c r="C83">
-        <v>0.0349068858264993</v>
+        <v>-0.04037630434628425</v>
       </c>
       <c r="D83">
-        <v>0.09130119263323699</v>
+        <v>-0.03881805297426329</v>
       </c>
       <c r="E83">
-        <v>0.02661765427577936</v>
+        <v>0.05569304793330665</v>
       </c>
       <c r="F83">
-        <v>-0.0600937408493243</v>
+        <v>-0.02075423060381115</v>
       </c>
       <c r="G83">
-        <v>0.03488231520633755</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04670782039163922</v>
+      </c>
+      <c r="H83">
+        <v>-0.04002172571527335</v>
+      </c>
+      <c r="I83">
+        <v>-0.02451341137132829</v>
+      </c>
+      <c r="J83">
+        <v>0.08361475907913136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2374847639998648</v>
+        <v>0.2534645486496799</v>
       </c>
       <c r="C85">
-        <v>0.04672432500758673</v>
+        <v>-0.05230849341328404</v>
       </c>
       <c r="D85">
-        <v>-0.06332970644480461</v>
+        <v>0.08861827102077061</v>
       </c>
       <c r="E85">
-        <v>-0.131567144326346</v>
+        <v>-0.1378922731834335</v>
       </c>
       <c r="F85">
-        <v>0.0640144332841099</v>
+        <v>0.08638866935833704</v>
       </c>
       <c r="G85">
-        <v>0.008901069521756073</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.0006040285520299766</v>
+      </c>
+      <c r="H85">
+        <v>-0.0192735372509134</v>
+      </c>
+      <c r="I85">
+        <v>-0.03669850922231031</v>
+      </c>
+      <c r="J85">
+        <v>0.1336005307287502</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04781607483983467</v>
+        <v>0.028428164498703</v>
       </c>
       <c r="C86">
-        <v>0.03822138760919778</v>
+        <v>-0.04448181026741919</v>
       </c>
       <c r="D86">
-        <v>-0.005531933781933364</v>
+        <v>0.006290404593719679</v>
       </c>
       <c r="E86">
-        <v>0.04692808294593228</v>
+        <v>0.03203918674420045</v>
       </c>
       <c r="F86">
-        <v>-0.001049175270747742</v>
+        <v>-0.05968880010575194</v>
       </c>
       <c r="G86">
-        <v>0.02793603481616752</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.008233158616191132</v>
+      </c>
+      <c r="H86">
+        <v>-0.05281152915028012</v>
+      </c>
+      <c r="I86">
+        <v>-0.05474933415683277</v>
+      </c>
+      <c r="J86">
+        <v>0.004882619768297457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02502179827338338</v>
+        <v>0.03591304390984405</v>
       </c>
       <c r="C87">
-        <v>-0.05368814160756165</v>
+        <v>0.02256566672051896</v>
       </c>
       <c r="D87">
-        <v>-0.01429494460231809</v>
+        <v>0.005205092767343002</v>
       </c>
       <c r="E87">
-        <v>0.06187120025233979</v>
+        <v>0.07403499683096687</v>
       </c>
       <c r="F87">
-        <v>-0.05635956927959</v>
+        <v>-0.06013661258904888</v>
       </c>
       <c r="G87">
-        <v>-0.1317032125914412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02168820595024471</v>
+      </c>
+      <c r="H87">
+        <v>0.01103782523614701</v>
+      </c>
+      <c r="I87">
+        <v>0.01012057198071851</v>
+      </c>
+      <c r="J87">
+        <v>-0.0785290750679558</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03747642318123023</v>
+        <v>0.02425852078962446</v>
       </c>
       <c r="C88">
-        <v>0.02439429413742708</v>
+        <v>-0.01634289999340047</v>
       </c>
       <c r="D88">
-        <v>-0.009362425312505116</v>
+        <v>0.01208965844129869</v>
       </c>
       <c r="E88">
-        <v>-0.005110966250746038</v>
+        <v>-0.02085923720165701</v>
       </c>
       <c r="F88">
-        <v>0.01243705638396144</v>
+        <v>-0.01805482378073573</v>
       </c>
       <c r="G88">
-        <v>0.04276178878220909</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02747327380515696</v>
+      </c>
+      <c r="H88">
+        <v>-0.04100727717189381</v>
+      </c>
+      <c r="I88">
+        <v>0.02234091275972482</v>
+      </c>
+      <c r="J88">
+        <v>-0.01811455393124169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.01464546030331003</v>
+        <v>0.05426705942172898</v>
       </c>
       <c r="C89">
-        <v>-0.4250292805278973</v>
+        <v>0.3949491117362556</v>
       </c>
       <c r="D89">
-        <v>0.1013563067719059</v>
+        <v>-0.03923257666394343</v>
       </c>
       <c r="E89">
-        <v>-0.0345082546500688</v>
+        <v>0.0742102918752031</v>
       </c>
       <c r="F89">
-        <v>-0.02142765534582903</v>
+        <v>0.02837433182803848</v>
       </c>
       <c r="G89">
-        <v>0.04317506617736123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.07796627187563247</v>
+      </c>
+      <c r="H89">
+        <v>-0.01277026363624972</v>
+      </c>
+      <c r="I89">
+        <v>-0.2978995479544769</v>
+      </c>
+      <c r="J89">
+        <v>0.03260088829853679</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.012478983849573</v>
+        <v>0.03445659962917898</v>
       </c>
       <c r="C90">
-        <v>-0.3077150347240228</v>
+        <v>0.3344903342869298</v>
       </c>
       <c r="D90">
-        <v>0.02692333356883599</v>
+        <v>-0.02379261547256091</v>
       </c>
       <c r="E90">
-        <v>0.02837870179863109</v>
+        <v>0.04106177435838264</v>
       </c>
       <c r="F90">
-        <v>-0.008058738524099196</v>
+        <v>-0.01420458498781686</v>
       </c>
       <c r="G90">
-        <v>-0.06310521189807727</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02075341807236094</v>
+      </c>
+      <c r="H90">
+        <v>0.02895143008317952</v>
+      </c>
+      <c r="I90">
+        <v>-0.2116191351411235</v>
+      </c>
+      <c r="J90">
+        <v>-0.01376353912321227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3020129179827838</v>
+        <v>0.3152867092537673</v>
       </c>
       <c r="C91">
-        <v>0.01592327961105559</v>
+        <v>-0.03697829668982443</v>
       </c>
       <c r="D91">
-        <v>-0.07711673921408781</v>
+        <v>0.1014512004008929</v>
       </c>
       <c r="E91">
-        <v>-0.2644056489703171</v>
+        <v>-0.2220718713206034</v>
       </c>
       <c r="F91">
-        <v>0.1732731227549376</v>
+        <v>0.1855069321535026</v>
       </c>
       <c r="G91">
-        <v>0.08413320999740249</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.03830277986585694</v>
+      </c>
+      <c r="H91">
+        <v>0.01431658526427901</v>
+      </c>
+      <c r="I91">
+        <v>-0.0768514891425079</v>
+      </c>
+      <c r="J91">
+        <v>0.2556214391863044</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.03353182216996869</v>
+        <v>0.07213323148317789</v>
       </c>
       <c r="C92">
-        <v>-0.441334515482163</v>
+        <v>0.4628490735661476</v>
       </c>
       <c r="D92">
-        <v>0.1821040218962819</v>
+        <v>-0.06630300925243184</v>
       </c>
       <c r="E92">
-        <v>-0.1093010665434478</v>
+        <v>-0.08092991205818331</v>
       </c>
       <c r="F92">
-        <v>0.1072409482149613</v>
+        <v>0.1309457277015446</v>
       </c>
       <c r="G92">
-        <v>0.4546159313303358</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.05059206703633444</v>
+      </c>
+      <c r="H92">
+        <v>-0.514365275782158</v>
+      </c>
+      <c r="I92">
+        <v>0.6676842740667829</v>
+      </c>
+      <c r="J92">
+        <v>0.1199457491131636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.02754053892572004</v>
+        <v>0.03321215197869923</v>
       </c>
       <c r="C93">
-        <v>-0.3677472596167814</v>
+        <v>0.4042899054271955</v>
       </c>
       <c r="D93">
-        <v>0.07037406787849738</v>
+        <v>-0.05049283399792522</v>
       </c>
       <c r="E93">
-        <v>-0.05021096327315318</v>
+        <v>0.02942507692463516</v>
       </c>
       <c r="F93">
-        <v>0.02065769496810471</v>
+        <v>0.05163023419519038</v>
       </c>
       <c r="G93">
-        <v>0.02009914680343649</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04077890012652231</v>
+      </c>
+      <c r="H93">
+        <v>0.04290429868877162</v>
+      </c>
+      <c r="I93">
+        <v>-0.1939747386412814</v>
+      </c>
+      <c r="J93">
+        <v>0.01330524939432162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2897971498252385</v>
+        <v>0.3165812200014702</v>
       </c>
       <c r="C94">
-        <v>-0.03828166280393758</v>
+        <v>0.005552849345182573</v>
       </c>
       <c r="D94">
-        <v>-0.05371881566196266</v>
+        <v>0.1506377338210115</v>
       </c>
       <c r="E94">
-        <v>-0.3730626751101261</v>
+        <v>-0.248415940017073</v>
       </c>
       <c r="F94">
-        <v>0.432243350379496</v>
+        <v>0.2808409449344846</v>
       </c>
       <c r="G94">
-        <v>-0.07828645219630816</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1629751821407116</v>
+      </c>
+      <c r="H94">
+        <v>-0.08357598710512744</v>
+      </c>
+      <c r="I94">
+        <v>-0.1480818986577445</v>
+      </c>
+      <c r="J94">
+        <v>-0.4034879915747838</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.2014767611939105</v>
+        <v>0.142351246558314</v>
       </c>
       <c r="C95">
-        <v>-0.03623002299154012</v>
+        <v>-0.05641963137837786</v>
       </c>
       <c r="D95">
-        <v>-0.01670667523102008</v>
+        <v>0.04412000716897336</v>
       </c>
       <c r="E95">
-        <v>-0.4594847341451698</v>
+        <v>0.002171652603088758</v>
       </c>
       <c r="F95">
-        <v>-0.813483706776619</v>
+        <v>0.0541237645971589</v>
       </c>
       <c r="G95">
-        <v>0.08785152467271147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9287539286166854</v>
+      </c>
+      <c r="H95">
+        <v>0.1180598975736648</v>
+      </c>
+      <c r="I95">
+        <v>0.0727079266833449</v>
+      </c>
+      <c r="J95">
+        <v>-0.2064380174342127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2186705082447139</v>
+        <v>0.2089387472231001</v>
       </c>
       <c r="C98">
-        <v>-0.1353369478148068</v>
+        <v>0.07174153470966299</v>
       </c>
       <c r="D98">
-        <v>0.03829592013552839</v>
+        <v>-0.01236162213945108</v>
       </c>
       <c r="E98">
-        <v>0.1091729996743567</v>
+        <v>0.1882030793870338</v>
       </c>
       <c r="F98">
-        <v>-0.04106373097258087</v>
+        <v>-0.02376780753531476</v>
       </c>
       <c r="G98">
-        <v>-0.2489033197980899</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.0800808874922944</v>
+      </c>
+      <c r="H98">
+        <v>0.3060460084847239</v>
+      </c>
+      <c r="I98">
+        <v>0.2030608732696897</v>
+      </c>
+      <c r="J98">
+        <v>0.003901968626402671</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02083897811740745</v>
+        <v>0.01312833294870475</v>
       </c>
       <c r="C101">
-        <v>0.01726571178478657</v>
+        <v>-0.02877145637691775</v>
       </c>
       <c r="D101">
-        <v>-0.02325314565891187</v>
+        <v>0.0283974466001227</v>
       </c>
       <c r="E101">
-        <v>0.03091684707010726</v>
+        <v>0.03298525364146448</v>
       </c>
       <c r="F101">
-        <v>-0.009161581879322351</v>
+        <v>-0.05951051842891781</v>
       </c>
       <c r="G101">
-        <v>0.03604507614054867</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.002359995474295945</v>
+      </c>
+      <c r="H101">
+        <v>-0.1175165957962981</v>
+      </c>
+      <c r="I101">
+        <v>0.004346713796958001</v>
+      </c>
+      <c r="J101">
+        <v>-0.1651010263279443</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1173261807654565</v>
+        <v>0.1211513718603498</v>
       </c>
       <c r="C102">
-        <v>0.004043199937743673</v>
+        <v>-0.02468098434073848</v>
       </c>
       <c r="D102">
-        <v>-0.04777796836968994</v>
+        <v>0.05223954647705129</v>
       </c>
       <c r="E102">
-        <v>-0.07938194612623731</v>
+        <v>-0.08140053424168878</v>
       </c>
       <c r="F102">
-        <v>0.002965388394480007</v>
+        <v>0.04353833653402617</v>
       </c>
       <c r="G102">
-        <v>0.006293694619359022</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02608935898664867</v>
+      </c>
+      <c r="H102">
+        <v>0.01227541558907784</v>
+      </c>
+      <c r="I102">
+        <v>-0.03626780256949878</v>
+      </c>
+      <c r="J102">
+        <v>0.0490211562024349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.0173316977584638</v>
+        <v>0.03074122020572378</v>
       </c>
       <c r="C103">
-        <v>-0.002001198064998854</v>
+        <v>-0.004469565825097668</v>
       </c>
       <c r="D103">
-        <v>-0.0186173895119663</v>
+        <v>0.02042648073485798</v>
       </c>
       <c r="E103">
-        <v>-0.02732271999306942</v>
+        <v>-0.03016811886509413</v>
       </c>
       <c r="F103">
-        <v>0.01635676070765441</v>
+        <v>0.001328952301791717</v>
       </c>
       <c r="G103">
-        <v>-0.01052867393698989</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01428862530684767</v>
+      </c>
+      <c r="H103">
+        <v>-0.01099306622100432</v>
+      </c>
+      <c r="I103">
+        <v>-0.02949173029440399</v>
+      </c>
+      <c r="J103">
+        <v>0.008593767505185109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
